--- a/ブログ登録_単体テスト.xlsx
+++ b/ブログ登録_単体テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE9C958C-4C7C-460B-9281-F70F759DF682}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{726B6272-70CE-46DB-B735-27CF7BCBF374}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="ブログ登録" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="93">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -324,19 +324,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「ブログ新規登録」の表示</t>
-    <rPh sb="4" eb="6">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトルがテキストボックスで初期値は空欄か確認</t>
     <rPh sb="14" eb="17">
       <t>ショキチ</t>
@@ -544,22 +531,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「ブログ新規登録確認」の表示</t>
-    <rPh sb="4" eb="6">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトルの入力値を表示の確認</t>
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
@@ -630,19 +601,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「ブログ新規登録確認」</t>
-    <rPh sb="4" eb="6">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブログ登録画面で入力された値の表示</t>
     <rPh sb="3" eb="5">
       <t>トウロク</t>
@@ -882,12 +840,88 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「ブログ新規登録」</t>
+    <t>「ブログ登録」の表示</t>
     <rPh sb="4" eb="6">
-      <t>シンキ</t>
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ブログ登録」</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_SESSION['user']が存在しない場合、login.phpへリダイレクトされるか</t>
+    <rPh sb="18" eb="20">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.phpにリダイレクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直打ちする</t>
+    <rPh sb="0" eb="2">
+      <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、blog-regist.phpをURL</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ブログ登録確認」の表示</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
     </rPh>
     <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ブログ登録確認」</t>
+    <rPh sb="4" eb="6">
       <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、blog-regist-complete.phpをURL</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、blog-regist-confirm.phpをURL</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1860,10 +1894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A25" zoomScale="79" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1914,12 +1948,12 @@
         <v>25</v>
       </c>
       <c r="C4" s="3">
-        <v>45789</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1966,10 +2000,14 @@
         <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1989,19 +2027,25 @@
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2021,7 +2065,9 @@
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
         <v>30</v>
@@ -2032,8 +2078,12 @@
       <c r="F12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2058,7 +2108,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>34</v>
@@ -2066,8 +2116,12 @@
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2092,7 +2146,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>34</v>
@@ -2100,8 +2154,12 @@
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2134,8 +2192,12 @@
       <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2160,16 +2222,20 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2192,16 +2258,20 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2224,7 +2294,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>29</v>
@@ -2232,8 +2302,12 @@
       <c r="F24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2242,7 +2316,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2258,16 +2332,20 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2290,16 +2368,20 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2324,16 +2406,20 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2358,16 +2444,20 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="G32" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2392,16 +2482,20 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="2"/>
+      <c r="G34" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2416,6 +2510,44 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2">
+        <v>15</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2432,10 +2564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBAC509-E636-4BFE-BD39-D45C4E1E86E3}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2486,12 +2618,12 @@
         <v>25</v>
       </c>
       <c r="C4" s="3">
-        <v>45789</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2530,16 +2662,20 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2548,7 +2684,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2564,16 +2700,20 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2582,7 +2722,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2598,16 +2738,20 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2616,7 +2760,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2635,13 +2779,17 @@
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2650,7 +2798,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2666,16 +2814,20 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2684,7 +2836,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2700,16 +2852,20 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2718,12 +2874,50 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2739,10 +2933,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E7FCF0-B1A5-474A-B569-B8E95D831D94}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2793,12 +2987,12 @@
         <v>25</v>
       </c>
       <c r="C4" s="3">
-        <v>45789</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2837,16 +3031,20 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="G9" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2855,7 +3053,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2871,16 +3069,20 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2889,7 +3091,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2905,16 +3107,20 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="G13" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2923,7 +3129,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2939,16 +3145,20 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2959,7 +3169,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
@@ -2972,12 +3182,50 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ブログ登録_単体テスト.xlsx
+++ b/ブログ登録_単体テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{726B6272-70CE-46DB-B735-27CF7BCBF374}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FDBDE4B-FBE2-462D-8DB4-3626669FDB58}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="96">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -922,6 +922,48 @@
     <t>1.ログインしない状態で、blog-regist-confirm.phpをURL</t>
     <rPh sb="9" eb="11">
       <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容の文字数カウントが表示される、打った文字数を表示するか</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.「内容」に文字を打つ</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/500の表示</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1018,7 +1060,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1047,6 +1089,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1894,10 +1939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="79" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD37"/>
+    <sheetView topLeftCell="A10" zoomScale="79" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2549,6 +2594,42 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2">
+        <v>16</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A4"/>
@@ -2566,7 +2647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBAC509-E636-4BFE-BD39-D45C4E1E86E3}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="79" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
